--- a/teaching/traditional_assets/database/data/bermuda/bermuda_semiconductor.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_semiconductor.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0633</v>
+        <v>-0.00534</v>
       </c>
       <c r="F2">
-        <v>0.103</v>
+        <v>0.186</v>
       </c>
       <c r="G2">
-        <v>0.5149836775116458</v>
+        <v>0.5175851564663528</v>
       </c>
       <c r="H2">
-        <v>0.1272420496643803</v>
+        <v>0.139677374688452</v>
       </c>
       <c r="I2">
-        <v>-0.06684367297575178</v>
+        <v>-0.04869394604658642</v>
       </c>
       <c r="J2">
-        <v>-0.06684367297575178</v>
+        <v>-0.04869394604658642</v>
       </c>
       <c r="K2">
-        <v>-449</v>
+        <v>1478.8</v>
       </c>
       <c r="L2">
-        <v>-0.1646920735062172</v>
+        <v>0.5119080587094987</v>
       </c>
       <c r="M2">
-        <v>363.4</v>
+        <v>585.5</v>
       </c>
       <c r="N2">
-        <v>0.02051577354741097</v>
+        <v>0.01833446064432086</v>
       </c>
       <c r="O2">
-        <v>-0.8093541202672605</v>
+        <v>0.3959291317284285</v>
       </c>
       <c r="P2">
-        <v>159</v>
+        <v>160.2</v>
       </c>
       <c r="Q2">
-        <v>0.008976356615405461</v>
+        <v>0.005016533894483691</v>
       </c>
       <c r="R2">
-        <v>-0.354120267260579</v>
+        <v>0.1083310792534487</v>
       </c>
       <c r="S2">
-        <v>204.4</v>
+        <v>425.3</v>
       </c>
       <c r="T2">
-        <v>0.5624656026417171</v>
+        <v>0.7263877028181042</v>
       </c>
       <c r="U2">
-        <v>438.4</v>
+        <v>832</v>
       </c>
       <c r="V2">
-        <v>0.02474990402637581</v>
+        <v>0.02605340948945338</v>
       </c>
       <c r="W2">
-        <v>-0.0592715800034322</v>
+        <v>0.2063691423148846</v>
       </c>
       <c r="X2">
-        <v>0.123687774238565</v>
+        <v>0.09235436334667033</v>
       </c>
       <c r="Y2">
-        <v>-0.1829593542419972</v>
+        <v>0.1140147789682142</v>
       </c>
       <c r="Z2">
-        <v>0.7969820847996321</v>
+        <v>0.7705859887496703</v>
       </c>
       <c r="AA2">
-        <v>-0.05327320984387948</v>
+        <v>-0.0375228725604319</v>
       </c>
       <c r="AB2">
-        <v>0.1146829646260112</v>
+        <v>0.08992952841225724</v>
       </c>
       <c r="AC2">
-        <v>-0.1679561744698907</v>
+        <v>-0.1274524009726891</v>
       </c>
       <c r="AD2">
-        <v>2183</v>
+        <v>1341.8</v>
       </c>
       <c r="AE2">
-        <v>149.1795281689606</v>
+        <v>146.3353566968945</v>
       </c>
       <c r="AF2">
-        <v>2332.179528168961</v>
+        <v>1488.135356696894</v>
       </c>
       <c r="AG2">
-        <v>1893.77952816896</v>
+        <v>656.1353566968944</v>
       </c>
       <c r="AH2">
-        <v>0.1163449923655296</v>
+        <v>0.04452490934080845</v>
       </c>
       <c r="AI2">
-        <v>0.2455448046873779</v>
+        <v>0.1506555200112716</v>
       </c>
       <c r="AJ2">
-        <v>0.09658701002100832</v>
+        <v>0.02013269648735819</v>
       </c>
       <c r="AK2">
-        <v>0.2090361392910819</v>
+        <v>0.07253532530234073</v>
       </c>
       <c r="AL2">
-        <v>84.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="AM2">
-        <v>80.23</v>
+        <v>67.58</v>
       </c>
       <c r="AN2">
-        <v>10.40019056693664</v>
+        <v>2.526454528337413</v>
       </c>
       <c r="AO2">
-        <v>-2.305064782096584</v>
+        <v>-2.060393258426966</v>
       </c>
       <c r="AP2">
-        <v>9.022294083701576</v>
+        <v>1.235427144976265</v>
       </c>
       <c r="AQ2">
-        <v>-2.439237193069924</v>
+        <v>-2.17076058005327</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0633</v>
+        <v>-0.00534</v>
       </c>
       <c r="F3">
-        <v>0.103</v>
+        <v>0.186</v>
       </c>
       <c r="G3">
-        <v>0.5149836775116458</v>
+        <v>0.5175851564663528</v>
       </c>
       <c r="H3">
-        <v>0.1272420496643803</v>
+        <v>0.139677374688452</v>
       </c>
       <c r="I3">
-        <v>-0.06684367297575178</v>
+        <v>-0.04869394604658642</v>
       </c>
       <c r="J3">
-        <v>-0.06684367297575178</v>
+        <v>-0.04869394604658642</v>
       </c>
       <c r="K3">
-        <v>-449</v>
+        <v>1478.8</v>
       </c>
       <c r="L3">
-        <v>-0.1646920735062172</v>
+        <v>0.5119080587094987</v>
       </c>
       <c r="M3">
-        <v>363.4</v>
+        <v>585.5</v>
       </c>
       <c r="N3">
-        <v>0.02051577354741097</v>
+        <v>0.01833446064432086</v>
       </c>
       <c r="O3">
-        <v>-0.8093541202672605</v>
+        <v>0.3959291317284285</v>
       </c>
       <c r="P3">
-        <v>159</v>
+        <v>160.2</v>
       </c>
       <c r="Q3">
-        <v>0.008976356615405461</v>
+        <v>0.005016533894483691</v>
       </c>
       <c r="R3">
-        <v>-0.354120267260579</v>
+        <v>0.1083310792534487</v>
       </c>
       <c r="S3">
-        <v>204.4</v>
+        <v>425.3</v>
       </c>
       <c r="T3">
-        <v>0.5624656026417171</v>
+        <v>0.7263877028181042</v>
       </c>
       <c r="U3">
-        <v>438.4</v>
+        <v>832</v>
       </c>
       <c r="V3">
-        <v>0.02474990402637581</v>
+        <v>0.02605340948945338</v>
       </c>
       <c r="W3">
-        <v>-0.0592715800034322</v>
+        <v>0.2063691423148846</v>
       </c>
       <c r="X3">
-        <v>0.123687774238565</v>
+        <v>0.09235436334667033</v>
       </c>
       <c r="Y3">
-        <v>-0.1829593542419972</v>
+        <v>0.1140147789682142</v>
       </c>
       <c r="Z3">
-        <v>0.7969820847996321</v>
+        <v>0.7705859887496703</v>
       </c>
       <c r="AA3">
-        <v>-0.05327320984387948</v>
+        <v>-0.0375228725604319</v>
       </c>
       <c r="AB3">
-        <v>0.1146829646260112</v>
+        <v>0.08992952841225724</v>
       </c>
       <c r="AC3">
-        <v>-0.1679561744698907</v>
+        <v>-0.1274524009726891</v>
       </c>
       <c r="AD3">
-        <v>2183</v>
+        <v>1341.8</v>
       </c>
       <c r="AE3">
-        <v>149.1795281689606</v>
+        <v>146.3353566968945</v>
       </c>
       <c r="AF3">
-        <v>2332.179528168961</v>
+        <v>1488.135356696894</v>
       </c>
       <c r="AG3">
-        <v>1893.77952816896</v>
+        <v>656.1353566968944</v>
       </c>
       <c r="AH3">
-        <v>0.1163449923655296</v>
+        <v>0.04452490934080845</v>
       </c>
       <c r="AI3">
-        <v>0.2455448046873779</v>
+        <v>0.1506555200112716</v>
       </c>
       <c r="AJ3">
-        <v>0.09658701002100832</v>
+        <v>0.02013269648735819</v>
       </c>
       <c r="AK3">
-        <v>0.2090361392910819</v>
+        <v>0.07253532530234073</v>
       </c>
       <c r="AL3">
-        <v>84.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="AM3">
-        <v>80.23</v>
+        <v>67.58</v>
       </c>
       <c r="AN3">
-        <v>10.40019056693664</v>
+        <v>2.526454528337413</v>
       </c>
       <c r="AO3">
-        <v>-2.305064782096584</v>
+        <v>-2.060393258426966</v>
       </c>
       <c r="AP3">
-        <v>9.022294083701576</v>
+        <v>1.235427144976265</v>
       </c>
       <c r="AQ3">
-        <v>-2.439237193069924</v>
+        <v>-2.17076058005327</v>
       </c>
     </row>
   </sheetData>
